--- a/NMAPP-V1.1/app/resources/data.xlsx
+++ b/NMAPP-V1.1/app/resources/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,130 @@
           <t>version</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
